--- a/Reports/LTD_BHL_CAT_1.xlsx
+++ b/Reports/LTD_BHL_CAT_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
   <si>
     <t>BHL_CAT_1</t>
   </si>
@@ -334,13 +334,109 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -1034,107 +1130,107 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="198">
+      <c r="A1" t="s" s="230">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="202">
+      <c r="B1" t="s" s="234">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="206">
+      <c r="C1" t="s" s="238">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="210">
+      <c r="D1" t="s" s="242">
         <v>12</v>
       </c>
-      <c r="E1" t="s" s="214">
+      <c r="E1" t="s" s="246">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="218">
+      <c r="F1" t="s" s="250">
         <v>19</v>
       </c>
-      <c r="G1" t="s" s="222">
+      <c r="G1" t="s" s="254">
         <v>23</v>
       </c>
-      <c r="H1" t="s" s="226">
+      <c r="H1" t="s" s="258">
         <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="199">
+      <c r="A2" t="s" s="231">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="203">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="207">
+      <c r="B2" t="s" s="235">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="239">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="211">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s" s="215">
+      <c r="D2" t="s" s="243">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s" s="247">
         <v>49</v>
       </c>
-      <c r="F2" t="s" s="219">
+      <c r="F2" t="s" s="251">
         <v>41</v>
       </c>
-      <c r="G2" t="s" s="223">
+      <c r="G2" t="s" s="255">
         <v>43</v>
       </c>
-      <c r="H2" t="s" s="227">
+      <c r="H2" t="s" s="259">
         <v>45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="200">
+      <c r="A3" t="s" s="232">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="204">
+      <c r="B3" t="s" s="236">
         <v>32</v>
       </c>
-      <c r="C3" t="s" s="208">
+      <c r="C3" t="s" s="240">
         <v>34</v>
       </c>
-      <c r="D3" t="s" s="212">
+      <c r="D3" t="s" s="244">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="216">
+      <c r="E3" t="s" s="248">
         <v>39</v>
       </c>
-      <c r="F3" t="s" s="220">
+      <c r="F3" t="s" s="252">
         <v>42</v>
       </c>
-      <c r="G3" t="s" s="224">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s" s="228">
+      <c r="G3" t="s" s="256">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s" s="260">
         <v>46</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="201">
+      <c r="A4" t="s" s="233">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="205">
+      <c r="B4" t="s" s="237">
         <v>64</v>
       </c>
-      <c r="C4" t="s" s="209">
+      <c r="C4" t="s" s="241">
         <v>35</v>
       </c>
-      <c r="D4" t="s" s="213">
+      <c r="D4" t="s" s="245">
         <v>86</v>
       </c>
-      <c r="E4" t="s" s="217">
+      <c r="E4" t="s" s="249">
         <v>59</v>
       </c>
-      <c r="F4" t="s" s="221">
+      <c r="F4" t="s" s="253">
         <v>61</v>
       </c>
-      <c r="G4" t="s" s="225">
+      <c r="G4" t="s" s="257">
         <v>26</v>
       </c>
-      <c r="H4" t="s" s="229">
-        <v>39</v>
+      <c r="H4" t="s" s="261">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
